--- a/model/data/ELEC.xlsx
+++ b/model/data/ELEC.xlsx
@@ -5,28 +5,28 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/e11777102_student_tuwien_ac_at/Documents/Master Thesis/industry/model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/e11777102_student_tuwien_ac_at/Documents/Arbeit/git/IndustryTransPath/model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{6CEA628C-E62F-4E1E-B524-28A652689B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0A203-6703-4F09-8FFC-98C1C8B203A0}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{6CEA628C-E62F-4E1E-B524-28A652689B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6131A166-F9A4-4947-9277-FA5881A6D2C4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{EC234235-8C42-44A6-A799-E4D5FA147C26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="9" xr2:uid="{EC234235-8C42-44A6-A799-E4D5FA147C26}"/>
   </bookViews>
   <sheets>
     <sheet name="SITE" sheetId="1" r:id="rId1"/>
-    <sheet name="TECHNOLOGY" sheetId="7" r:id="rId2"/>
-    <sheet name="CO2" sheetId="12" r:id="rId3"/>
-    <sheet name="energy price 2020" sheetId="5" r:id="rId4"/>
-    <sheet name="energy price 2025" sheetId="15" r:id="rId5"/>
-    <sheet name="energy price 2030" sheetId="14" r:id="rId6"/>
-    <sheet name="energy price 2035" sheetId="13" r:id="rId7"/>
-    <sheet name="max 2020" sheetId="17" r:id="rId8"/>
-    <sheet name="max 2025" sheetId="18" r:id="rId9"/>
-    <sheet name="max 2030" sheetId="19" r:id="rId10"/>
-    <sheet name="max 2035" sheetId="20" r:id="rId11"/>
-    <sheet name="max 2040" sheetId="21" r:id="rId12"/>
-    <sheet name="carrier_av_2020" sheetId="11" r:id="rId13"/>
-    <sheet name="carrier_av_2030" sheetId="10" r:id="rId14"/>
+    <sheet name="TECHNOLOGY" sheetId="24" r:id="rId2"/>
+    <sheet name="SCe_2020" sheetId="25" r:id="rId3"/>
+    <sheet name="SCe_2030" sheetId="26" r:id="rId4"/>
+    <sheet name="CO2" sheetId="12" r:id="rId5"/>
+    <sheet name="energy price 2020" sheetId="5" r:id="rId6"/>
+    <sheet name="energy price 2025" sheetId="15" r:id="rId7"/>
+    <sheet name="energy price 2030" sheetId="14" r:id="rId8"/>
+    <sheet name="energy price 2035" sheetId="13" r:id="rId9"/>
+    <sheet name="max 2020" sheetId="17" r:id="rId10"/>
+    <sheet name="max 2025" sheetId="18" r:id="rId11"/>
+    <sheet name="max 2030" sheetId="19" r:id="rId12"/>
+    <sheet name="max 2035" sheetId="20" r:id="rId13"/>
+    <sheet name="max 2040" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -268,7 +268,7 @@
     <author>Marcus Otti</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2F1AFF1A-1152-4F8C-B99D-FA26267359CF}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C4787448-9AB9-45BC-B20F-588B6EE32847}">
       <text>
         <r>
           <rPr>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AC0C0D36-9444-49CE-AED6-1458544E74C1}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{896DECFF-1C9C-4C54-911C-7A8E9ABD1A7C}">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6F806A51-5BD0-4143-AC4F-9EFAE5BA0F88}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B4385860-1AA2-40F5-9275-FFD3D1C68DC9}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BA40030A-575A-44BF-9F4E-DE882D68F584}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B2E2BC0F-B7A5-4F99-A773-A3EAFA21843F}">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B8FF22BC-BD14-4F2E-B3B4-6DE649E5B4E9}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{DA508F60-98B9-485D-AD88-F80E2F9A5FB0}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{974F8653-DE2F-4DEC-B5EF-9B91E8124B2C}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{CEB117CA-2E9E-402D-BCD8-3CE7EC7BEA23}">
       <text>
         <r>
           <rPr>
@@ -412,55 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{9F039FD8-B1D5-41A7-BA70-35B9DBFD942C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Marcus Otti:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Rahnama Mobarakeh und Kienberger, „Climate neutrality strategies for energy-intensive industries: An Austrian case study“.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{D0E9634B-4DCA-41C4-9984-655E8886B727}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Marcus Otti:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Rahnama Mobarakeh und Kienberger, „Climate neutrality strategies for energy-intensive industries: An Austrian case study“.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{9E11CEA9-FCFD-4C69-9953-A1B6AE16724D}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{99D72EA8-23C3-4C98-9BA5-D1F4FE31E4A0}">
       <text>
         <r>
           <rPr>
@@ -485,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{E4CB227D-9AD8-45CF-AC4D-285EAE36DFF7}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{F30F4D4C-F2D9-49E7-9A51-7B28C01CA6CC}">
       <text>
         <r>
           <rPr>
@@ -509,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{E1964C39-BCBC-47BC-86FE-812DC80278A4}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{A1464E86-4E57-4722-868F-93D1FC46B86F}">
       <text>
         <r>
           <rPr>
@@ -533,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{BA265A4F-14CA-4F4B-A00A-12E860CF71EA}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{105ACEE8-064B-4D2F-901C-DE8051A0763E}">
       <text>
         <r>
           <rPr>
@@ -557,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{DF07AA48-D30A-4067-A8CF-EC50B6D15810}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{4024F780-DCAF-4AB5-B2BF-C52C9A40EEB3}">
       <text>
         <r>
           <rPr>
@@ -581,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{7CF8B104-C2ED-4543-9C70-DF7AE8ED03F1}">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{B922926C-BD04-4329-80DB-E569E5BC130E}">
       <text>
         <r>
           <rPr>
@@ -605,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{89F44832-8712-424D-B939-A206C9170D9C}">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{6E918F25-DCEE-4553-A347-D82097AE5DF1}">
       <text>
         <r>
           <rPr>
@@ -629,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{41C70385-56E4-49E7-B3AC-F29D9C00F818}">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{751FB126-B94D-486E-B7AA-0FD3DCAA5391}">
       <text>
         <r>
           <rPr>
@@ -654,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{CA1DC7F0-2058-488B-A12B-62B17ACA85B0}">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{BD4A49E4-C361-41CF-B361-D89F16A6814E}">
       <text>
         <r>
           <rPr>
@@ -689,7 +641,7 @@
     <author>Marcus Otti</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{C18206E4-6319-447A-A4D2-99BA04048B13}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7AE0DEDA-6110-49E7-8DDB-A93369023DCB}">
       <text>
         <r>
           <rPr>
@@ -709,7 +661,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Max Oberhumer und Bürger, „Umwelterklärung 2019, Sappi Austria Produktions-GmbH &amp; Co. KG, Standort Gratkorn“.</t>
+Rahnama Mobarakeh und Kienberger, „Climate neutrality strategies for energy-intensive industries: An Austrian case study“.</t>
         </r>
       </text>
     </comment>
@@ -723,7 +675,7 @@
     <author>Marcus Otti</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7C78B556-925B-4605-8F1E-CF6516D39DEA}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EF7DB8AF-2CA9-42A2-8A20-7225495D2C10}">
       <text>
         <r>
           <rPr>
@@ -743,7 +695,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Max Oberhumer und Bürger, „Umwelterklärung 2019, Sappi Austria Produktions-GmbH &amp; Co. KG, Standort Gratkorn“.</t>
+Rahnama Mobarakeh und Kienberger, „Climate neutrality strategies for energy-intensive industries: An Austrian case study“.</t>
         </r>
       </text>
     </comment>
@@ -752,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="176">
   <si>
     <t>site</t>
   </si>
@@ -902,15 +854,6 @@
     <t>Paper is dried by exposure to microwave radiation. This technology increases the drying rate and reduces the total energy consumption.</t>
   </si>
   <si>
-    <t>Ironmaking</t>
-  </si>
-  <si>
-    <t>Pulping</t>
-  </si>
-  <si>
-    <t>Papermaking</t>
-  </si>
-  <si>
     <t>NMM</t>
   </si>
   <si>
@@ -920,15 +863,9 @@
     <t>Using oxygen instead of air to produce CO₂-rich exhaust gas that can be easily captured after purification.</t>
   </si>
   <si>
-    <t>Cement making</t>
-  </si>
-  <si>
     <t>ELEC_NMM</t>
   </si>
   <si>
-    <t>Clinker making</t>
-  </si>
-  <si>
     <t>Instead of fossil fuels, electricity can be used to meet the clinker kiln’s high temperature (1400 ◦C) heat demand. Electrification is achieved by adapting plasma technologies, microwave heating, and induction heating, which are not commercially available.</t>
   </si>
   <si>
@@ -971,9 +908,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>application</t>
-  </si>
-  <si>
     <t>Marienhütte Graz</t>
   </si>
   <si>
@@ -1157,9 +1091,6 @@
     <t>Holcim Retznei</t>
   </si>
   <si>
-    <t>Holcim Bludenz</t>
-  </si>
-  <si>
     <t>Kirchdorfer Zementwerk Hofmann</t>
   </si>
   <si>
@@ -1284,9 +1215,6 @@
   </si>
   <si>
     <t>Electric Arc Furnace</t>
-  </si>
-  <si>
-    <t>Steelmaking</t>
   </si>
   <si>
     <t>Use electricity to melt iron to produce steel</t>
@@ -1383,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,12 +1320,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1412,10 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1734,17 +1653,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CD659-E9B5-4363-8C5D-AE9615F69036}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="3"/>
-    <col min="3" max="3" width="11.140625" style="8"/>
+    <col min="3" max="3" width="11.140625" style="6"/>
     <col min="5" max="5" width="11.42578125" style="3"/>
     <col min="6" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
@@ -1774,29 +1693,29 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <f>5260000/3</f>
         <v>1753333.3333333333</v>
       </c>
@@ -1810,7 +1729,7 @@
       <c r="F2">
         <v>0.1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>0.15</v>
       </c>
       <c r="H2">
@@ -1823,20 +1742,20 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C4" si="0">5260000/3</f>
         <v>1753333.3333333333</v>
       </c>
@@ -1850,7 +1769,7 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>0.15</v>
       </c>
       <c r="H3">
@@ -1863,20 +1782,20 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>1753333.3333333333</v>
       </c>
@@ -1890,7 +1809,7 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>0.15</v>
       </c>
       <c r="H4">
@@ -1903,20 +1822,20 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <f>1610000/3</f>
         <v>536666.66666666663</v>
       </c>
@@ -1930,7 +1849,7 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>0.15</v>
       </c>
       <c r="H5">
@@ -1943,20 +1862,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f>1610000/3</f>
         <v>536666.66666666663</v>
       </c>
@@ -1970,7 +1889,7 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>0.15</v>
       </c>
       <c r="H6">
@@ -1983,20 +1902,20 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>410000</v>
       </c>
       <c r="D7" s="3">
@@ -2008,7 +1927,7 @@
       <c r="F7">
         <v>0.8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7">
@@ -2021,20 +1940,20 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>205000</v>
       </c>
       <c r="D8" s="3">
@@ -2046,7 +1965,7 @@
       <c r="F8">
         <v>0.8</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8">
@@ -2059,20 +1978,20 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>110000</v>
       </c>
       <c r="D9" s="3">
@@ -2084,7 +2003,7 @@
       <c r="F9">
         <v>0.8</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9">
@@ -2097,23 +2016,23 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>1000000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.41</v>
       </c>
       <c r="E10" s="3">
@@ -2136,20 +2055,20 @@
         <v>0.4</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>160000</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.41</v>
       </c>
       <c r="E11" s="3">
@@ -2172,20 +2091,20 @@
         <v>0.4</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>80000</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0.41</v>
       </c>
       <c r="E12" s="3">
@@ -2208,20 +2127,20 @@
         <v>0.4</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>130000</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.41</v>
       </c>
       <c r="E13" s="3">
@@ -2244,20 +2163,20 @@
         <v>0.4</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>90000</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.41</v>
       </c>
       <c r="E14" s="3">
@@ -2280,20 +2199,20 @@
         <v>0.4</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>450000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.41</v>
       </c>
       <c r="E15" s="3">
@@ -2316,20 +2235,20 @@
         <v>0.4</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>800000</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.41</v>
       </c>
       <c r="E16" s="3">
@@ -2352,20 +2271,20 @@
         <v>0.4</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>300000</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.41</v>
       </c>
       <c r="E17" s="3">
@@ -2388,20 +2307,20 @@
         <v>0.4</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>100000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.41</v>
       </c>
       <c r="E18" s="3">
@@ -2424,20 +2343,20 @@
         <v>0.4</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>520000</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.41</v>
       </c>
       <c r="E19" s="3">
@@ -2460,20 +2379,20 @@
         <v>0.4</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>10000</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>0.41</v>
       </c>
       <c r="E20" s="3">
@@ -2496,20 +2415,20 @@
         <v>0.4</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>270000</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.41</v>
       </c>
       <c r="E21" s="3">
@@ -2532,20 +2451,20 @@
         <v>0.4</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>200000</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.41</v>
       </c>
       <c r="E22" s="3">
@@ -2568,20 +2487,20 @@
         <v>0.4</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>70000</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.41</v>
       </c>
       <c r="E23" s="3">
@@ -2604,20 +2523,20 @@
         <v>0.4</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>440000</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.41</v>
       </c>
       <c r="E24" s="3">
@@ -2640,20 +2559,20 @@
         <v>0.4</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>370000</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.41</v>
       </c>
       <c r="E25" s="3">
@@ -2676,20 +2595,20 @@
         <v>0.4</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>200000</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>0.41</v>
       </c>
       <c r="E26" s="3">
@@ -2712,20 +2631,20 @@
         <v>0.4</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>1000</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.41</v>
       </c>
       <c r="E27" s="3">
@@ -2748,20 +2667,20 @@
         <v>0.4</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>5000</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>0.41</v>
       </c>
       <c r="E28" s="3">
@@ -2784,20 +2703,20 @@
         <v>0.4</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>120000</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>0.41</v>
       </c>
       <c r="E29" s="3">
@@ -2820,20 +2739,20 @@
         <v>0.4</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>30000</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>0.41</v>
       </c>
       <c r="E30" s="3">
@@ -2856,20 +2775,20 @@
         <v>0.4</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>270000</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>0.41</v>
       </c>
       <c r="E31" s="3">
@@ -2892,20 +2811,20 @@
         <v>0.4</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>60000</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>0.41</v>
       </c>
       <c r="E32" s="3">
@@ -2928,20 +2847,20 @@
         <v>0.4</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="9">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7">
         <v>600000</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>0.52</v>
       </c>
       <c r="E33" s="3">
@@ -2964,20 +2883,20 @@
         <v>0.6</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="9">
+        <v>49</v>
+      </c>
+      <c r="C34" s="7">
         <v>400000</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>0.52</v>
       </c>
       <c r="E34" s="3">
@@ -3000,20 +2919,20 @@
         <v>0.6</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="9">
+        <v>49</v>
+      </c>
+      <c r="C35" s="7">
         <v>340000</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>0.52</v>
       </c>
       <c r="E35" s="3">
@@ -3036,20 +2955,20 @@
         <v>0.6</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="9">
+        <v>49</v>
+      </c>
+      <c r="C36" s="7">
         <v>340000</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>0.52</v>
       </c>
       <c r="E36" s="3">
@@ -3072,20 +2991,20 @@
         <v>0.6</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="9">
+        <v>49</v>
+      </c>
+      <c r="C37" s="7">
         <v>800000</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>0.52</v>
       </c>
       <c r="E37" s="3">
@@ -3108,20 +3027,20 @@
         <v>0.6</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="9">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7">
         <v>800000</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>0.52</v>
       </c>
       <c r="E38" s="3">
@@ -3144,20 +3063,20 @@
         <v>0.6</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="9">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7">
         <v>340000</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>0.52</v>
       </c>
       <c r="E39" s="3">
@@ -3180,20 +3099,20 @@
         <v>0.6</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="9">
+        <v>49</v>
+      </c>
+      <c r="C40" s="7">
         <v>600000</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>0.52</v>
       </c>
       <c r="E40" s="3">
@@ -3216,20 +3135,20 @@
         <v>0.6</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="9">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7">
         <v>340000</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>0.52</v>
       </c>
       <c r="E41" s="3">
@@ -3252,20 +3171,20 @@
         <v>0.6</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="9">
+        <v>49</v>
+      </c>
+      <c r="C42" s="7">
         <v>340000</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="5">
         <v>0.52</v>
       </c>
       <c r="E42" s="3">
@@ -3288,20 +3207,20 @@
         <v>0.6</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="9">
+        <v>49</v>
+      </c>
+      <c r="C43" s="7">
         <v>340000</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>0.52</v>
       </c>
       <c r="E43" s="3">
@@ -3324,7 +3243,12 @@
         <v>0.6</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3335,6 +3259,117 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5A4079-AD3C-4A5B-A552-FC2762FC24B9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8E0691-8E4D-40B1-85C7-FD0BAC7BBC53}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C868D9-76C1-4B0A-9C88-0A4AEE468192}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3346,7 +3381,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3355,19 +3390,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>4000000</v>
@@ -3381,7 +3416,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75F2493-F4BC-4BB6-8C10-966C629B36D1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3401,7 +3436,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3410,19 +3445,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>4500000</v>
@@ -3436,7 +3471,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D52DC4-7353-4B3B-9049-1A6DF172E922}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3456,7 +3491,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3465,19 +3500,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>7350000</v>
@@ -3491,7 +3526,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3499,1814 +3534,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA4797-105E-4AA0-B2C6-263E2E7B2261}">
-  <dimension ref="A1:F44"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B739A2C-2C1C-4C46-B25D-A66DF51513F7}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B6069A-B240-4262-A0C6-65E2B39ADFFC}">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D654F57-46CB-4B8C-B459-5E629AE4B200}">
-  <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,17 +3549,16 @@
     <col min="1" max="1" width="13.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="8" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9" max="13" width="7.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="37.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8" max="12" width="7.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5334,11 +3568,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>69</v>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -5346,35 +3580,29 @@
       <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -5384,35 +3612,24 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>450</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>0.26</v>
       </c>
-      <c r="H2" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -5422,49 +3639,43 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>300</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>0.31</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="3">
         <v>-0.54</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.54</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -5472,37 +3683,25 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>300</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -5510,47 +3709,40 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>300</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.15</v>
       </c>
-      <c r="I5" s="7">
-        <v>-0.08</v>
-      </c>
-      <c r="J5" s="7">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -5558,47 +3750,40 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>270</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>-0.75</v>
       </c>
-      <c r="K6" s="7">
+      <c r="J6" s="3">
         <v>0.75</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
@@ -5606,49 +3791,43 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>270</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>0.05</v>
       </c>
-      <c r="H7" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="3">
         <v>-0.2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="K7" s="7">
+      <c r="J7" s="3">
         <v>0.75</v>
       </c>
-      <c r="L7" s="7">
+      <c r="K7" s="3">
         <v>-0.7</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -5656,29 +3835,23 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>9</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>240</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="M8" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -5688,39 +3861,28 @@
       <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>-0.2</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="N9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
@@ -5728,39 +3890,28 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>450</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>0.17</v>
       </c>
-      <c r="H10" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="N10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -5768,47 +3919,40 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>150</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="3">
         <v>-0.25</v>
       </c>
-      <c r="J11" s="7">
+      <c r="I11" s="3">
         <v>0.25</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -5816,47 +3960,41 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>150</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>0.2</v>
       </c>
-      <c r="H12" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="3">
         <v>-0.25</v>
       </c>
-      <c r="J12" s="7">
+      <c r="I12" s="3">
         <v>0.25</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -5866,39 +4004,28 @@
       <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>200</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>-0.2</v>
       </c>
-      <c r="H13" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -5906,39 +4033,28 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>0.1</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="N14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
@@ -5946,39 +4062,28 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>0.1</v>
       </c>
-      <c r="H15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5986,364 +4091,259 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>300</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>0.1</v>
       </c>
-      <c r="H16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="N16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>-0.15</v>
       </c>
-      <c r="H17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="N17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>210</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>-0.4</v>
       </c>
-      <c r="H18" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="N18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>250</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="3">
         <v>-0.15</v>
       </c>
-      <c r="J19" s="7">
+      <c r="I19" s="3">
         <v>0.02</v>
       </c>
-      <c r="K19" s="7">
+      <c r="J19" s="3">
         <v>0.13</v>
       </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>250</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>0.05</v>
       </c>
-      <c r="H20" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="N20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>250</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>0.05</v>
       </c>
-      <c r="H21" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="N23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>9</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="N24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6353,11 +4353,427 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7033BA-B666-4A57-B25A-FC5242C49ECA}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54DB5DF-16CF-4DB2-BB5A-6C3C6F1B0C63}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF57D24C-B3F5-4FF6-A715-3A22A7513534}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7033BA-B666-4A57-B25A-FC5242C49ECA}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,10 +4783,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,6 +4964,11 @@
       </c>
       <c r="B21">
         <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6555,20 +4976,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897BEAE3-6E8D-4802-8D78-E96DEB745190}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6577,18 +4998,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>59.5</v>
@@ -6608,7 +5029,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -6625,6 +5046,9 @@
       <c r="F3">
         <v>17.5</v>
       </c>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6632,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A88C843-8DB8-452B-80DE-395BBD7D2BBF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6644,7 +5068,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6653,18 +5077,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>49.5</v>
@@ -6684,7 +5108,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -6708,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244A6C8-B281-4EEF-9FB5-86FE81652A6A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6720,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6729,18 +5153,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>39.5</v>
@@ -6760,7 +5184,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -6784,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB541412-EABA-4A15-9FF1-12F11F7B251A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6796,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6805,18 +5229,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>39.5</v>
@@ -6836,7 +5260,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -6858,115 +5282,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5A4079-AD3C-4A5B-A552-FC2762FC24B9}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8E0691-8E4D-40B1-85C7-FD0BAC7BBC53}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>